--- a/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
+++ b/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibarakiuniversity-my.sharepoint.com/personal/18t1040x_vc_ibaraki_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\加藤正隆\Desktop\storage\jissyuu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D7FA9C-A4A6-40A4-9534-3C02FBB46BA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4A1D4-1E9F-4ADF-8BFF-B953FFC9B0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="771"/>
+    <workbookView xWindow="3740" yWindow="5730" windowWidth="8620" windowHeight="6000" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機材調達ＤＢ" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>番号</t>
   </si>
@@ -589,14 +591,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4個入り　ゴムタイヤ　直径100㎜</t>
-  </si>
-  <si>
-    <t>Mxfans</t>
-  </si>
-  <si>
     <t>ヴィンストン</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ビュートローバー用赤外線センサ</t>
@@ -606,33 +602,33 @@
     <rPh sb="9" eb="12">
       <t>セキガイセン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>タッチセンサー</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>二輪キャスター</t>
     <rPh sb="0" eb="2">
       <t>ニリン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ボールキャスター</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>モーター(アーム用）</t>
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ギアボックス</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>単三乾電池(10個入)</t>
@@ -645,60 +641,60 @@
     <rPh sb="8" eb="10">
       <t>コイリ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>電池ボックス1</t>
     <rPh sb="0" eb="2">
       <t>デンチ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>電池ボックス2</t>
     <rPh sb="0" eb="2">
       <t>デンチ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ジャンパ線</t>
     <rPh sb="4" eb="5">
       <t>セン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ビニル電線</t>
     <rPh sb="3" eb="5">
       <t>デンセン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>パワーギヤボックス</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>赤外線センサー</t>
     <rPh sb="0" eb="3">
       <t>セキガイセン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>後輪</t>
     <rPh sb="0" eb="2">
       <t>コウリン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>配布されるもの</t>
     <rPh sb="0" eb="2">
       <t>ハイフ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>双輪キャスターTE-Nねじ式</t>
@@ -708,11 +704,11 @@
     <rPh sb="13" eb="14">
       <t>シキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>旋回式ねじ込み式キャスター</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ギヤボックス、260タイプモータ付きセット</t>
@@ -723,18 +719,18 @@
   </si>
   <si>
     <t>6gfcm 11g</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>20×24×30mm</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>アルカリ乾電池　1.5V　96g</t>
     <rPh sb="4" eb="7">
       <t>カンデンチ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>単三×2本用　30×58mm</t>
@@ -747,7 +743,7 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>単三×１用</t>
@@ -757,11 +753,11 @@
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t xml:space="preserve">150mm </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>板厚10mm (縦×横)60×80</t>
@@ -774,7 +770,7 @@
     <rPh sb="10" eb="11">
       <t>ヨコ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>各1m×6色セット</t>
@@ -784,59 +780,55 @@
     <rPh sb="5" eb="6">
       <t>ショク</t>
     </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>モノタロウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タミヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>405A-10N40</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>LR6N/10S</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>AP-132</t>
+  </si>
+  <si>
+    <t>UM-310NH</t>
+  </si>
+  <si>
+    <t>PJA-1510</t>
+  </si>
+  <si>
+    <t>KH-102N</t>
+  </si>
+  <si>
+    <t>0.2KV-1×6</t>
+  </si>
+  <si>
+    <t>https://www.vstone.co.jp/robotshop/index.php?main_page=product_info&amp;cPath=71_203&amp;products_id=1972</t>
+  </si>
+  <si>
+    <t>https://www.monotaro.com/p/0754/3121/?t.attr_f3505=%91o%97%D6</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>モノタロウ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タミヤ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>405A-10N40</t>
+    <t>https://www.monotaro.com/g/01051075/?t.attr_f3505=%83%7B%81%5B%83%8B%8E%D4%97%D6</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>LR6N/10S</t>
+    <t>https://www.tamiya.com/japan/products/72003/index.html</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>AP-132</t>
-  </si>
-  <si>
-    <t>UM-310NH</t>
-  </si>
-  <si>
-    <t>PJA-1510</t>
-  </si>
-  <si>
-    <t>KH-102N</t>
-  </si>
-  <si>
-    <t>0.2KV-1×6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/dp/B079JWQKXP/ref=cm_sw_r_li_awdo_c_4t0WEbF9YM4M7</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>https://www.vstone.co.jp/robotshop/index.php?main_page=product_info&amp;cPath=71_203&amp;products_id=1972</t>
-  </si>
-  <si>
-    <t>https://www.monotaro.com/p/0754/3121/?t.attr_f3505=%91o%97%D6</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>https://www.monotaro.com/g/01051075/?t.attr_f3505=%83%7B%81%5B%83%8B%8E%D4%97%D6</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>https://www.tamiya.com/japan/products/72003/index.html</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>https://www.monotaro.com/g/01122762/</t>
   </si>
   <si>
@@ -844,7 +836,7 @@
   </si>
   <si>
     <t>https://www.monotaro.com/g/00174701/?t.q=%92P%8EO%93d%92r</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>https://www.monotaro.com/g/01220322/?t.q=%93d%92r%83%7B%83b%83N%83X</t>
@@ -873,25 +865,64 @@
     <rPh sb="0" eb="2">
       <t>コガタ</t>
     </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>TE-40JN2.5</t>
+  </si>
+  <si>
+    <t>タミヤ(モノタロウ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スポーツタイヤセット　直径56mm 幅25mm</t>
+    <rPh sb="11" eb="13">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニトリルゴムシート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>厚さ10mm幅100mm</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.monotaro.com/p/0568/6494/?utm_medium=cpc&amp;utm_source=Adwords&amp;utm_campaign=246-833-4061_6466659573&amp;utm_content=77481173956&amp;utm_term=_380615429419__aud-536766637816:pla-888444747587&amp;gclid=CjwKCAjw9vn4BRBaEiwAh0muDI-cBVZUj2cclo9VrKoOKxqJRVC6xUcANs8lY5DOfCcosw6vWuoNZBoCiF0QAvD_BwE</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>TE-40JN2.5</t>
-  </si>
-  <si>
-    <t>タミヤ(モノタロウ)</t>
+    <t>https://www.monotaro.com/p/3584/8276/</t>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="m/d;@"/>
-    <numFmt numFmtId="183" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -971,13 +1002,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1005,15 +1029,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
@@ -1031,6 +1046,13 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1516,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1524,7 +1546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,25 +1592,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1609,19 +1631,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1642,7 +1664,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,7 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1660,7 +1682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
@@ -1669,13 +1691,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1732,10 +1754,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1753,10 +1775,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,10 +1796,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1792,13 +1814,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,16 +1831,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1830,35 +1849,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1921,7 +1946,7 @@
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2452,22 +2477,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N15" sqref="N15"/>
       <selection pane="topRight" activeCell="N15" sqref="N15"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="3" width="5.1796875" customWidth="1"/>
@@ -2484,56 +2509,56 @@
     <col min="19" max="19" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="7.25" customHeight="1"/>
+    <row r="2" spans="1:19" ht="27.5" customHeight="1">
       <c r="A2" s="22"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="123"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.5" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="126" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-    </row>
-    <row r="4" spans="1:19" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="126"/>
+    </row>
+    <row r="4" spans="1:19" ht="35.5" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -2588,11 +2613,11 @@
       <c r="R4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2629,7 +2654,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2652,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N33" si="0">L6*M6</f>
+        <f t="shared" ref="N6:N34" si="0">L6*M6</f>
         <v>0</v>
       </c>
       <c r="O6" s="32">
@@ -2664,7 +2689,7 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2703,7 +2728,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2713,35 +2738,37 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="96">
-        <v>1500</v>
+      <c r="H8" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="106">
+        <v>70111</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="106">
+        <v>549</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>549</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2751,109 +2778,108 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="51">
-        <v>660</v>
+      <c r="H9" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="106">
+        <v>461</v>
       </c>
       <c r="M9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>461</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="104" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="102" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="97" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="13">
+        <v>660</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="O10" s="32"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="6"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="97" t="s">
-        <v>64</v>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="96" t="s">
+        <v>61</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="51">
-        <v>549</v>
-      </c>
-      <c r="M11" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="O11" s="32"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="104" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="6"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2863,37 +2889,37 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="110" t="s">
-        <v>90</v>
+      <c r="H12" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="108" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" s="51">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2903,37 +2929,37 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="1">
-        <v>72003</v>
+      <c r="H13" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="100">
-        <v>1078</v>
+        <v>86</v>
+      </c>
+      <c r="L13" s="51">
+        <v>428</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>2156</v>
+        <v>428</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2944,36 +2970,36 @@
       <c r="F14" s="1"/>
       <c r="G14" s="37"/>
       <c r="H14" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="110">
-        <v>75026</v>
-      </c>
-      <c r="K14" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="51">
-        <v>263</v>
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1">
+        <v>72003</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="99">
+        <v>1078</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>2156</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2983,37 +3009,37 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="97" t="s">
-        <v>67</v>
+      <c r="H15" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="13">
-        <v>70189</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>113</v>
+        <v>78</v>
+      </c>
+      <c r="J15" s="108">
+        <v>75026</v>
+      </c>
+      <c r="K15" s="110" t="s">
+        <v>110</v>
       </c>
       <c r="L15" s="51">
-        <v>879</v>
+        <v>263</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>879</v>
+        <v>263</v>
       </c>
       <c r="O15" s="32"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3023,37 +3049,39 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="97" t="s">
-        <v>68</v>
+      <c r="H16" s="96" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="106">
-        <v>329</v>
+        <v>79</v>
+      </c>
+      <c r="J16" s="13">
+        <v>70189</v>
+      </c>
+      <c r="K16" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="51">
+        <v>879</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>879</v>
       </c>
       <c r="O16" s="32"/>
       <c r="P16" s="28"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3063,119 +3091,119 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="97" t="s">
-        <v>69</v>
+      <c r="H17" s="96" t="s">
+        <v>66</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="51">
-        <v>219</v>
-      </c>
-      <c r="M17" s="4">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="J17" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="104">
+        <v>329</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>657</v>
+        <v>329</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="97" t="s">
-        <v>70</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="96" t="s">
+        <v>67</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="99" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="J18" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="L18" s="51">
-        <v>175</v>
-      </c>
-      <c r="M18" s="8">
-        <v>2</v>
+        <v>219</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>657</v>
       </c>
       <c r="O18" s="32"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="97" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="96" t="s">
+        <v>68</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="J19" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>86</v>
       </c>
       <c r="L19" s="51">
-        <v>219</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="O19" s="32"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="29"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3183,39 +3211,39 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="97" t="s">
-        <v>111</v>
+      <c r="H20" s="96" t="s">
+        <v>69</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="L20" s="51">
-        <v>615</v>
-      </c>
-      <c r="M20" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" s="4">
         <v>1</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>615</v>
+        <v>219</v>
       </c>
       <c r="O20" s="32"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3223,39 +3251,39 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="97" t="s">
-        <v>72</v>
+      <c r="H21" s="96" t="s">
+        <v>108</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="J21" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="L21" s="51">
-        <v>241</v>
-      </c>
-      <c r="M21" s="4">
+        <v>615</v>
+      </c>
+      <c r="M21" s="2">
         <v>1</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>615</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3263,104 +3291,109 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="37"/>
-      <c r="H22" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="69">
-        <v>243</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="H22" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="51">
+        <v>241</v>
+      </c>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="100" t="s">
         <v>45</v>
       </c>
       <c r="I23" s="94" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="76">
-        <v>1463</v>
-      </c>
-      <c r="M23" s="6">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="69">
+        <v>243</v>
+      </c>
+      <c r="M23" s="2">
         <v>1</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="O23" s="32"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="76">
         <v>1463</v>
       </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="76">
-        <v>147</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="M24" s="6">
         <v>1</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>1463</v>
       </c>
       <c r="O24" s="32"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="29"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3368,49 +3401,59 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>51</v>
+      </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="L25" s="76">
+        <v>147</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="O25" s="32"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="32"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3433,9 +3476,9 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3458,34 +3501,34 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O29" s="32"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="29"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3508,34 +3551,34 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
       <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" s="32"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="28"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3545,10 +3588,10 @@
       <c r="G32" s="38"/>
       <c r="H32" s="34"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3558,56 +3601,81 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="7" customFormat="1" ht="23.5" customHeight="1">
       <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="48"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49" t="s">
+      <c r="O33" s="32"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" s="3" customFormat="1" ht="23.5" customHeight="1" thickBot="1">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="48"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="23.5" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49">
-        <f>SUM(N5:N33)</f>
-        <v>11359</v>
-      </c>
-      <c r="O34" s="50"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="20">
-        <f>SUM(R5:R33)</f>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49">
+        <f>SUM(N5:N34)</f>
+        <v>10869</v>
+      </c>
+      <c r="O35" s="50"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="20">
+        <f>SUM(R5:R34)</f>
         <v>0</v>
       </c>
     </row>
@@ -3620,29 +3688,30 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="S12" r:id="rId1"/>
-    <hyperlink ref="S11" r:id="rId2"/>
-    <hyperlink ref="S13" r:id="rId3"/>
-    <hyperlink ref="S16" r:id="rId4"/>
-    <hyperlink ref="S15" r:id="rId5"/>
-    <hyperlink ref="S14" r:id="rId6"/>
-    <hyperlink ref="S17" r:id="rId7"/>
-    <hyperlink ref="S18" r:id="rId8"/>
-    <hyperlink ref="S9" r:id="rId9"/>
-    <hyperlink ref="S8" r:id="rId10"/>
-    <hyperlink ref="S19" r:id="rId11"/>
-    <hyperlink ref="S20" r:id="rId12"/>
-    <hyperlink ref="S21" r:id="rId13"/>
+    <hyperlink ref="S13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="S19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S8" r:id="rId10" display="https://www.monotaro.com/p/0568/6494/?utm_medium=cpc&amp;utm_source=Adwords&amp;utm_campaign=246-833-4061_6466659573&amp;utm_content=77481173956&amp;utm_term=_380615429419__aud-536766637816:pla-888444747587&amp;gclid=CjwKCAjw9vn4BRBaEiwAh0muDI-cBVZUj2cclo9VrKoOKxqJRVC6xUcANs8lY5DOfCcosw6vWuoNZBoCiF0QAvD_BwE" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="S9" r:id="rId14" xr:uid="{E159EA1D-0E57-4E42-9B0A-3034558B3255}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="1200" r:id="rId15"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3652,7 +3721,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.81640625" style="51" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" style="52" customWidth="1"/>
@@ -3668,8 +3737,8 @@
     <col min="12" max="12" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="E2" s="54" t="s">
         <v>26</v>
       </c>
@@ -3678,41 +3747,41 @@
       </c>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="J3" s="57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+    <row r="4" spans="1:11" ht="22" customHeight="1">
+      <c r="A4" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-    </row>
-    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+    </row>
+    <row r="5" spans="1:11" ht="22" customHeight="1">
+      <c r="A5" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="59"/>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-    </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" customHeight="1" thickBot="1">
       <c r="K6" s="60"/>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A7" s="61" t="s">
         <v>25</v>
       </c>
@@ -3747,7 +3816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="66">
         <v>1</v>
       </c>
@@ -3776,7 +3845,7 @@
       </c>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="72">
         <v>2</v>
       </c>
@@ -3805,7 +3874,7 @@
       </c>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="72">
         <v>3</v>
       </c>
@@ -3834,7 +3903,7 @@
       </c>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="72">
         <v>4</v>
       </c>
@@ -3849,7 +3918,7 @@
       <c r="J11" s="78"/>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="72">
         <v>5</v>
       </c>
@@ -3864,7 +3933,7 @@
       <c r="J12" s="78"/>
       <c r="K12" s="71"/>
     </row>
-    <row r="13" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="72">
         <v>6</v>
       </c>
@@ -3879,7 +3948,7 @@
       <c r="J13" s="78"/>
       <c r="K13" s="71"/>
     </row>
-    <row r="14" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="72">
         <v>7</v>
       </c>
@@ -3894,7 +3963,7 @@
       <c r="J14" s="78"/>
       <c r="K14" s="71"/>
     </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="72">
         <v>8</v>
       </c>
@@ -3909,7 +3978,7 @@
       <c r="J15" s="78"/>
       <c r="K15" s="71"/>
     </row>
-    <row r="16" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="72">
         <v>9</v>
       </c>
@@ -3924,7 +3993,7 @@
       <c r="J16" s="78"/>
       <c r="K16" s="71"/>
     </row>
-    <row r="17" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="72">
         <v>10</v>
       </c>
@@ -3939,7 +4008,7 @@
       <c r="J17" s="78"/>
       <c r="K17" s="71"/>
     </row>
-    <row r="18" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="72">
         <v>11</v>
       </c>
@@ -3954,7 +4023,7 @@
       <c r="J18" s="78"/>
       <c r="K18" s="71"/>
     </row>
-    <row r="19" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="72">
         <v>12</v>
       </c>
@@ -3969,7 +4038,7 @@
       <c r="J19" s="78"/>
       <c r="K19" s="71"/>
     </row>
-    <row r="20" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="72">
         <v>13</v>
       </c>
@@ -3984,7 +4053,7 @@
       <c r="J20" s="78"/>
       <c r="K20" s="71"/>
     </row>
-    <row r="21" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="72">
         <v>14</v>
       </c>
@@ -3999,7 +4068,7 @@
       <c r="J21" s="78"/>
       <c r="K21" s="71"/>
     </row>
-    <row r="22" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A22" s="79">
         <v>15</v>
       </c>
@@ -4014,7 +4083,7 @@
       <c r="J22" s="85"/>
       <c r="K22" s="71"/>
     </row>
-    <row r="23" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A23" s="86"/>
       <c r="B23" s="87"/>
       <c r="C23" s="86"/>
@@ -4032,112 +4101,112 @@
       <c r="J23" s="92"/>
       <c r="K23" s="93"/>
     </row>
-    <row r="24" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="20.25" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="22" customHeight="1">
       <c r="B25" s="52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="22" customHeight="1">
       <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="22" customHeight="1"/>
+    <row r="28" spans="1:11" ht="22" customHeight="1"/>
+    <row r="29" spans="1:11" ht="22" customHeight="1"/>
+    <row r="30" spans="1:11" ht="22" customHeight="1"/>
+    <row r="31" spans="1:11" ht="22" customHeight="1"/>
+    <row r="32" spans="1:11" ht="22" customHeight="1"/>
+    <row r="33" ht="22" customHeight="1"/>
+    <row r="34" ht="22" customHeight="1"/>
+    <row r="35" ht="22" customHeight="1"/>
+    <row r="36" ht="22" customHeight="1"/>
+    <row r="37" ht="22" customHeight="1"/>
+    <row r="38" ht="22" customHeight="1"/>
+    <row r="39" ht="22" customHeight="1"/>
+    <row r="40" ht="22" customHeight="1"/>
+    <row r="41" ht="22" customHeight="1"/>
+    <row r="42" ht="22" customHeight="1"/>
+    <row r="43" ht="22" customHeight="1"/>
+    <row r="44" ht="22" customHeight="1"/>
+    <row r="45" ht="22" customHeight="1"/>
+    <row r="46" ht="22" customHeight="1"/>
+    <row r="47" ht="22" customHeight="1"/>
+    <row r="48" ht="22" customHeight="1"/>
+    <row r="49" ht="22" customHeight="1"/>
+    <row r="50" ht="22" customHeight="1"/>
+    <row r="51" ht="22" customHeight="1"/>
+    <row r="52" ht="22" customHeight="1"/>
+    <row r="53" ht="22" customHeight="1"/>
+    <row r="54" ht="22" customHeight="1"/>
+    <row r="55" ht="22" customHeight="1"/>
+    <row r="56" ht="22" customHeight="1"/>
+    <row r="57" ht="22" customHeight="1"/>
+    <row r="58" ht="22" customHeight="1"/>
+    <row r="59" ht="22" customHeight="1"/>
+    <row r="60" ht="22" customHeight="1"/>
+    <row r="61" ht="22" customHeight="1"/>
+    <row r="62" ht="22" customHeight="1"/>
+    <row r="63" ht="22" customHeight="1"/>
+    <row r="64" ht="22" customHeight="1"/>
+    <row r="65" ht="22" customHeight="1"/>
+    <row r="66" ht="22" customHeight="1"/>
+    <row r="67" ht="22" customHeight="1"/>
+    <row r="68" ht="22" customHeight="1"/>
+    <row r="69" ht="22" customHeight="1"/>
+    <row r="70" ht="22" customHeight="1"/>
+    <row r="71" ht="22" customHeight="1"/>
+    <row r="72" ht="22" customHeight="1"/>
+    <row r="73" ht="22" customHeight="1"/>
+    <row r="74" ht="22" customHeight="1"/>
+    <row r="75" ht="22" customHeight="1"/>
+    <row r="76" ht="22" customHeight="1"/>
+    <row r="77" ht="22" customHeight="1"/>
+    <row r="78" ht="22" customHeight="1"/>
+    <row r="79" ht="22" customHeight="1"/>
+    <row r="80" ht="22" customHeight="1"/>
+    <row r="81" ht="22" customHeight="1"/>
+    <row r="82" ht="22" customHeight="1"/>
+    <row r="83" ht="22" customHeight="1"/>
+    <row r="84" ht="22" customHeight="1"/>
+    <row r="85" ht="22" customHeight="1"/>
+    <row r="86" ht="22" customHeight="1"/>
+    <row r="87" ht="22" customHeight="1"/>
+    <row r="88" ht="22" customHeight="1"/>
+    <row r="89" ht="22" customHeight="1"/>
+    <row r="90" ht="22" customHeight="1"/>
+    <row r="91" ht="22" customHeight="1"/>
+    <row r="92" ht="22" customHeight="1"/>
+    <row r="93" ht="22" customHeight="1"/>
+    <row r="94" ht="22" customHeight="1"/>
+    <row r="95" ht="22" customHeight="1"/>
+    <row r="96" ht="22" customHeight="1"/>
+    <row r="97" ht="22" customHeight="1"/>
+    <row r="98" ht="22" customHeight="1"/>
+    <row r="99" ht="22" customHeight="1"/>
+    <row r="100" ht="22" customHeight="1"/>
+    <row r="101" ht="22" customHeight="1"/>
+    <row r="102" ht="22" customHeight="1"/>
+    <row r="103" ht="22" customHeight="1"/>
+    <row r="104" ht="22" customHeight="1"/>
+    <row r="105" ht="22" customHeight="1"/>
+    <row r="106" ht="22" customHeight="1"/>
+    <row r="107" ht="22" customHeight="1"/>
+    <row r="108" ht="22" customHeight="1"/>
+    <row r="109" ht="20" customHeight="1"/>
+    <row r="110" ht="20" customHeight="1"/>
+    <row r="111" ht="20" customHeight="1"/>
+    <row r="112" ht="20" customHeight="1"/>
+    <row r="113" ht="20" customHeight="1"/>
+    <row r="114" ht="20" customHeight="1"/>
+    <row r="115" ht="20" customHeight="1"/>
+    <row r="116" ht="20" customHeight="1"/>
+    <row r="117" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:C4"/>

--- a/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
+++ b/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\加藤正隆\Desktop\storage\jissyuu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4A1D4-1E9F-4ADF-8BFF-B953FFC9B0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A02E51-7167-4D5D-AE87-124555CC5CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="5730" windowWidth="8620" windowHeight="6000" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機材調達ＤＢ" sheetId="12" r:id="rId1"/>
@@ -889,28 +889,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>厚さ10mm幅100mm</t>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.monotaro.com/p/0568/6494/?utm_medium=cpc&amp;utm_source=Adwords&amp;utm_campaign=246-833-4061_6466659573&amp;utm_content=77481173956&amp;utm_term=_380615429419__aud-536766637816:pla-888444747587&amp;gclid=CjwKCAjw9vn4BRBaEiwAh0muDI-cBVZUj2cclo9VrKoOKxqJRVC6xUcANs8lY5DOfCcosw6vWuoNZBoCiF0QAvD_BwE</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://www.monotaro.com/p/3584/8276/</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>厚さ10mm 幅100mm 長さ200mm</t>
     <rPh sb="0" eb="1">
       <t>アツ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="7" eb="8">
       <t>ハバ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.monotaro.com/p/0568/6494/?utm_medium=cpc&amp;utm_source=Adwords&amp;utm_campaign=246-833-4061_6466659573&amp;utm_content=77481173956&amp;utm_term=_380615429419__aud-536766637816:pla-888444747587&amp;gclid=CjwKCAjw9vn4BRBaEiwAh0muDI-cBVZUj2cclo9VrKoOKxqJRVC6xUcANs8lY5DOfCcosw6vWuoNZBoCiF0QAvD_BwE</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://www.monotaro.com/p/3584/8276/</t>
-  </si>
-  <si>
-    <t>.</t>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2485,11 +2488,11 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N15" sqref="N15"/>
       <selection pane="topRight" activeCell="N15" sqref="N15"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
@@ -2765,7 +2768,7 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="2"/>
       <c r="S8" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
@@ -2782,10 +2785,10 @@
         <v>112</v>
       </c>
       <c r="I9" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="112" t="s">
         <v>113</v>
-      </c>
-      <c r="J9" s="112" t="s">
-        <v>114</v>
       </c>
       <c r="K9" s="113" t="s">
         <v>86</v>
@@ -2804,7 +2807,7 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="2"/>
       <c r="S9" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" ht="23.5" customHeight="1">
@@ -3074,7 +3077,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="102" t="s">
@@ -4395,18 +4398,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4429,14 +4432,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B71E-109A-4F2E-A55A-92BED976EFE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EADFA3F-1521-4E7E-8D9E-41D176F269C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4451,4 +4446,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B71E-109A-4F2E-A55A-92BED976EFE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
+++ b/jissyuu/2020 Jissyu2 12PROC Data base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\加藤正隆\Desktop\storage\jissyuu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A02E51-7167-4D5D-AE87-124555CC5CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA15F85E-8669-453A-816D-C9B0404DE1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>番号</t>
   </si>
@@ -914,6 +914,21 @@
     <rPh sb="14" eb="15">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前輪</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M8ボルト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナット</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1649,9 +1664,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1956,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2488,11 +2503,11 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N15" sqref="N15"/>
       <selection pane="topRight" activeCell="N15" sqref="N15"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
@@ -2515,51 +2530,51 @@
     <row r="1" spans="1:19" ht="7.25" customHeight="1"/>
     <row r="2" spans="1:19" ht="27.5" customHeight="1">
       <c r="A2" s="22"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="123"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
     </row>
     <row r="3" spans="1:19" ht="27.5" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="127" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="125"/>
     </row>
     <row r="4" spans="1:19" ht="35.5" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
@@ -2586,25 +2601,25 @@
       <c r="H4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -2616,7 +2631,7 @@
       <c r="R4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="102" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2631,27 +2646,27 @@
       <c r="D5" s="9"/>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43">
         <v>12</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="43">
         <f>L5*M5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="44">
         <v>40316</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="17"/>
@@ -2668,7 +2683,7 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="31" t="s">
         <v>15</v>
       </c>
@@ -2686,7 +2701,7 @@
       <c r="O6" s="32">
         <v>40317</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="17"/>
@@ -2705,7 +2720,7 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="36"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="31" t="s">
         <v>15</v>
       </c>
@@ -2740,20 +2755,20 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="97" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="105">
         <v>70111</v>
       </c>
-      <c r="K8" s="111" t="s">
+      <c r="K8" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="106">
+      <c r="L8" s="105">
         <v>549</v>
       </c>
       <c r="M8" s="4">
@@ -2767,7 +2782,7 @@
       <c r="P8" s="28"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="102" t="s">
+      <c r="S8" s="101" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2780,20 +2795,20 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="97" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="112" t="s">
+      <c r="J9" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="106">
+      <c r="L9" s="105">
         <v>461</v>
       </c>
       <c r="M9" s="4">
@@ -2806,7 +2821,7 @@
       <c r="P9" s="28"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="101" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2819,15 +2834,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="97" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="96" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="50" t="s">
         <v>59</v>
       </c>
       <c r="L10" s="13">
@@ -2844,7 +2859,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="102" t="s">
+      <c r="S10" s="101" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2857,14 +2872,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="96" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="95" t="s">
         <v>61</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="107"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="6"/>
       <c r="L11" s="5">
         <v>0</v>
@@ -2891,20 +2906,20 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="96" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="95" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="107" t="s">
         <v>109</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="50">
         <v>549</v>
       </c>
       <c r="M12" s="2">
@@ -2918,7 +2933,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="102" t="s">
+      <c r="S12" s="101" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2931,20 +2946,20 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="96" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="107" t="s">
         <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="50">
         <v>428</v>
       </c>
       <c r="M13" s="2">
@@ -2958,7 +2973,7 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="102" t="s">
+      <c r="S13" s="101" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2971,8 +2986,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="97" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="96" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2984,7 +2999,7 @@
       <c r="K14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="99">
+      <c r="L14" s="98">
         <v>1078</v>
       </c>
       <c r="M14" s="2">
@@ -2998,7 +3013,7 @@
       <c r="P14" s="28"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="102" t="s">
+      <c r="S14" s="101" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3011,20 +3026,20 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="96" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="95" t="s">
         <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="107">
         <v>75026</v>
       </c>
-      <c r="K15" s="110" t="s">
+      <c r="K15" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="50">
         <v>263</v>
       </c>
       <c r="M15" s="2">
@@ -3038,7 +3053,7 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="102" t="s">
+      <c r="S15" s="101" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3051,8 +3066,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="96" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="95" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -3061,10 +3076,10 @@
       <c r="J16" s="13">
         <v>70189</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="50">
         <v>879</v>
       </c>
       <c r="M16" s="2">
@@ -3080,7 +3095,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="102" t="s">
+      <c r="S16" s="101" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3093,20 +3108,20 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="96" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="95" t="s">
         <v>66</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="107" t="s">
         <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="103">
         <v>329</v>
       </c>
       <c r="M17" s="2">
@@ -3120,7 +3135,7 @@
       <c r="P17" s="28"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="102" t="s">
+      <c r="S17" s="101" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3133,20 +3148,20 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="96" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="95" t="s">
         <v>67</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="107" t="s">
         <v>90</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="50">
         <v>219</v>
       </c>
       <c r="M18" s="4">
@@ -3160,7 +3175,7 @@
       <c r="P18" s="28"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="102" t="s">
+      <c r="S18" s="101" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3173,20 +3188,20 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="96" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="95" t="s">
         <v>68</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="50">
         <v>175</v>
       </c>
       <c r="M19" s="8">
@@ -3200,7 +3215,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="102" t="s">
+      <c r="S19" s="101" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3213,20 +3228,20 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="96" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="95" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="107" t="s">
+      <c r="J20" s="106" t="s">
         <v>92</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="50">
         <v>219</v>
       </c>
       <c r="M20" s="4">
@@ -3240,7 +3255,7 @@
       <c r="P20" s="28"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="102" t="s">
+      <c r="S20" s="101" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3253,20 +3268,20 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="96" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="95" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="106" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="50">
         <v>615</v>
       </c>
       <c r="M21" s="2">
@@ -3280,7 +3295,7 @@
       <c r="P21" s="28"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="102" t="s">
+      <c r="S21" s="101" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3293,20 +3308,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="96" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="95" t="s">
         <v>70</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="107" t="s">
+      <c r="J22" s="106" t="s">
         <v>94</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="50">
         <v>241</v>
       </c>
       <c r="M22" s="4">
@@ -3320,7 +3335,7 @@
       <c r="P22" s="28"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="102" t="s">
+      <c r="S22" s="101" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3333,18 +3348,18 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="100" t="s">
+      <c r="G23" s="36"/>
+      <c r="H23" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="94" t="s">
+      <c r="J23" s="93" t="s">
         <v>50</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="69">
+      <c r="L23" s="68">
         <v>243</v>
       </c>
       <c r="M23" s="2">
@@ -3368,18 +3383,18 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="100" t="s">
+      <c r="G24" s="37"/>
+      <c r="H24" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="94" t="s">
+      <c r="J24" s="93" t="s">
         <v>49</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="76">
+      <c r="L24" s="75">
         <v>1463</v>
       </c>
       <c r="M24" s="6">
@@ -3403,18 +3418,18 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="101" t="s">
+      <c r="G25" s="36"/>
+      <c r="H25" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="94" t="s">
+      <c r="I25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="94" t="s">
+      <c r="J25" s="93" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="76">
+      <c r="L25" s="75">
         <v>147</v>
       </c>
       <c r="M25" s="2">
@@ -3438,15 +3453,20 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="132" t="s">
+        <v>118</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
       <c r="N26" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="32"/>
@@ -3463,15 +3483,20 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="34"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="132" t="s">
+        <v>119</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
       <c r="N27" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="32"/>
@@ -3488,13 +3513,19 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="34"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="132" t="s">
+        <v>120</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>9</v>
+      </c>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3513,8 +3544,8 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="34"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -3538,8 +3569,8 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3563,8 +3594,8 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3588,8 +3619,8 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="34"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="6"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -3613,8 +3644,8 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="34"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3638,18 +3669,18 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47">
+      <c r="G34" s="36"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="48"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="2"/>
@@ -3662,19 +3693,19 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49" t="s">
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49">
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48">
         <f>SUM(N5:N34)</f>
         <v>10869</v>
       </c>
-      <c r="O35" s="50"/>
+      <c r="O35" s="49"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="20">
@@ -3726,12 +3757,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="50" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="52" customWidth="1"/>
     <col min="7" max="7" width="6.6328125" customWidth="1"/>
     <col min="8" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="6.81640625" customWidth="1"/>
@@ -3742,375 +3773,375 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="56"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22" customHeight="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="22" customHeight="1">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="132" t="s">
+      <c r="E5" s="131"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1" thickBot="1">
-      <c r="K6" s="60"/>
-    </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="22" customHeight="1" thickBot="1">
-      <c r="A7" s="61" t="s">
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="A7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A8" s="66">
+    <row r="8" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94">
+      <c r="E8" s="93"/>
+      <c r="F8" s="93">
         <v>243</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="69">
         <v>1</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="68">
         <v>243</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="95" t="s">
+      <c r="I8" s="67"/>
+      <c r="J8" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="71"/>
-    </row>
-    <row r="9" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A9" s="72">
+      <c r="K8" s="70"/>
+    </row>
+    <row r="9" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="93"/>
+      <c r="F9" s="93">
         <v>1463</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <v>1</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="75">
         <v>1463</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="95" t="s">
+      <c r="I9" s="75"/>
+      <c r="J9" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="71"/>
-    </row>
-    <row r="10" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A10" s="72">
+      <c r="K9" s="70"/>
+    </row>
+    <row r="10" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A10" s="71">
         <v>3</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94">
+      <c r="E10" s="93"/>
+      <c r="F10" s="93">
         <v>147</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="76">
         <v>1</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>147</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="95" t="s">
+      <c r="I10" s="73"/>
+      <c r="J10" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="71"/>
-    </row>
-    <row r="11" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="72">
+      <c r="K10" s="70"/>
+    </row>
+    <row r="11" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="71">
         <v>4</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="71"/>
-    </row>
-    <row r="12" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="72">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="71">
         <v>5</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="71"/>
-    </row>
-    <row r="13" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="72">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="70"/>
+    </row>
+    <row r="13" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="71">
         <v>6</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="71"/>
-    </row>
-    <row r="14" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="72">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="70"/>
+    </row>
+    <row r="14" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="71">
         <v>7</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="71"/>
-    </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A15" s="72">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A15" s="71">
         <v>8</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="71"/>
-    </row>
-    <row r="16" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A16" s="72">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A16" s="71">
         <v>9</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="71"/>
-    </row>
-    <row r="17" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A17" s="72">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A17" s="71">
         <v>10</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A18" s="72">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="70"/>
+    </row>
+    <row r="18" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A18" s="71">
         <v>11</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="71"/>
-    </row>
-    <row r="19" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A19" s="72">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="70"/>
+    </row>
+    <row r="19" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A19" s="71">
         <v>12</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="71"/>
-    </row>
-    <row r="20" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A20" s="72">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="70"/>
+    </row>
+    <row r="20" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A20" s="71">
         <v>13</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="71"/>
-    </row>
-    <row r="21" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1">
-      <c r="A21" s="72">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="70"/>
+    </row>
+    <row r="21" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1">
+      <c r="A21" s="71">
         <v>14</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1">
-      <c r="A22" s="79">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="70"/>
+    </row>
+    <row r="22" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="A22" s="78">
         <v>15</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" s="58" customFormat="1" ht="22" customHeight="1" thickBot="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="70"/>
+    </row>
+    <row r="23" spans="1:11" s="57" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="91">
+      <c r="H23" s="90">
         <f>IF(SUM(H8:H22)=0," ",SUM(H8:H22))</f>
         <v>1853</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
     </row>
     <row r="24" spans="1:11" ht="20.25" customHeight="1">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22" customHeight="1">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="51" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4398,18 +4429,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4432,6 +4463,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B71E-109A-4F2E-A55A-92BED976EFE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EADFA3F-1521-4E7E-8D9E-41D176F269C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4446,12 +4485,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B71E-109A-4F2E-A55A-92BED976EFE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>